--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1778112.489966083</v>
+        <v>-1780972.322201353</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.396723986041593</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.4828962484624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>156.1335090772886</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>54.82748615999278</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>38.15774227325469</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>52.21594625443466</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>267.2677024144737</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>107.8841547619053</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.6612299361366</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476448</v>
+        <v>99.43720189476406</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.66253762724315</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926216</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>46.48747328022429</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075478</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295537</v>
+        <v>18.30391896304726</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238382</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>149.9129010324777</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.1152538431679</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>166.4659543930267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>139.190555086749</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470972</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>221.4087062169173</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.01462214225094</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.85302162263694</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>65.99480013030511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>180.330238561827</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>48.85497112745633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557918976</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,19 +2998,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.1630968205461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294358</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294358</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294358</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>135.6918411636717</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823982</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823982</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659134</v>
+        <v>514.5314111966416</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494285</v>
+        <v>325.1116261801566</v>
       </c>
       <c r="W2" t="n">
-        <v>21.46338433294358</v>
+        <v>325.1116261801566</v>
       </c>
       <c r="X2" t="n">
-        <v>21.46338433294358</v>
+        <v>325.1116261801566</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.46338433294358</v>
+        <v>325.1116261801566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.8829005733907</v>
+        <v>353.9240526153388</v>
       </c>
       <c r="C3" t="n">
-        <v>129.8829005733907</v>
+        <v>179.4710233342118</v>
       </c>
       <c r="D3" t="n">
-        <v>129.8829005733907</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188285</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188285</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188285</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099436</v>
+        <v>711.5591746518917</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099436</v>
+        <v>711.5591746518917</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099436</v>
+        <v>711.5591746518917</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099436</v>
+        <v>711.5591746518917</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099436</v>
+        <v>711.5591746518917</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934587</v>
+        <v>522.1393896354068</v>
       </c>
     </row>
     <row r="4">
@@ -4468,10 +4468,10 @@
         <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012.343157652536</v>
+        <v>894.6019919548098</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.343157652536</v>
+        <v>894.6019919548098</v>
       </c>
       <c r="D5" t="n">
-        <v>1012.343157652536</v>
+        <v>536.3362933480594</v>
       </c>
       <c r="E5" t="n">
-        <v>626.5549050542913</v>
+        <v>150.5480407498152</v>
       </c>
       <c r="F5" t="n">
-        <v>517.5810113553971</v>
+        <v>143.6025400006117</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704106</v>
+        <v>131.0545164704104</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704106</v>
+        <v>131.0545164704104</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121393</v>
+        <v>93.38580827121518</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235821</v>
+        <v>238.2046462235846</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190601</v>
+        <v>454.7669823190641</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643028</v>
+        <v>727.4037457643088</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453883</v>
+        <v>1009.065865453891</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831923</v>
+        <v>1261.696156831933</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855765</v>
+        <v>1442.809264855777</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744546</v>
+        <v>1530.644919744559</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744546</v>
+        <v>1495.632255474616</v>
       </c>
       <c r="S5" t="n">
-        <v>1385.808915913615</v>
+        <v>1495.632255474616</v>
       </c>
       <c r="T5" t="n">
-        <v>1385.808915913615</v>
+        <v>1495.632255474616</v>
       </c>
       <c r="U5" t="n">
-        <v>1385.808915913615</v>
+        <v>1495.632255474616</v>
       </c>
       <c r="V5" t="n">
-        <v>1385.808915913615</v>
+        <v>1164.569368131046</v>
       </c>
       <c r="W5" t="n">
-        <v>1385.808915913615</v>
+        <v>1164.569368131046</v>
       </c>
       <c r="X5" t="n">
-        <v>1012.343157652536</v>
+        <v>1164.569368131046</v>
       </c>
       <c r="Y5" t="n">
-        <v>1012.343157652536</v>
+        <v>1164.569368131046</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683.4011921666641</v>
+        <v>519.0237023437655</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9481628855372</v>
+        <v>344.5706730626385</v>
       </c>
       <c r="D6" t="n">
-        <v>360.0137532242859</v>
+        <v>195.6362634013873</v>
       </c>
       <c r="E6" t="n">
-        <v>360.0137532242859</v>
+        <v>195.6362634013873</v>
       </c>
       <c r="F6" t="n">
-        <v>313.0567095068876</v>
+        <v>49.10170542827225</v>
       </c>
       <c r="G6" t="n">
-        <v>175.8824899137901</v>
+        <v>49.10170542827225</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908827</v>
+        <v>49.10170542827225</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275221</v>
+        <v>49.182166522753</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477032</v>
+        <v>159.0748281477049</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543689</v>
+        <v>353.1616144543718</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642194</v>
+        <v>599.0086077642238</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621691</v>
+        <v>865.7710843621751</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970539</v>
+        <v>1087.586838970546</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422842</v>
+        <v>1246.28047142285</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680478</v>
+        <v>1302.443765680488</v>
       </c>
       <c r="R6" t="n">
-        <v>1251.938857051808</v>
+        <v>1302.443765680488</v>
       </c>
       <c r="S6" t="n">
-        <v>1107.434782966754</v>
+        <v>1157.939691595434</v>
       </c>
       <c r="T6" t="n">
-        <v>911.5224021523615</v>
+        <v>962.0273107810411</v>
       </c>
       <c r="U6" t="n">
-        <v>683.4011921666641</v>
+        <v>962.0273107810411</v>
       </c>
       <c r="V6" t="n">
-        <v>683.4011921666641</v>
+        <v>726.8752025492984</v>
       </c>
       <c r="W6" t="n">
-        <v>683.4011921666641</v>
+        <v>726.8752025492984</v>
       </c>
       <c r="X6" t="n">
-        <v>683.4011921666641</v>
+        <v>519.0237023437655</v>
       </c>
       <c r="Y6" t="n">
-        <v>683.4011921666641</v>
+        <v>519.0237023437655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="K7" t="n">
-        <v>51.4905488171317</v>
+        <v>51.49054881713252</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363469</v>
+        <v>108.1125511363484</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055961</v>
+        <v>171.0707966055984</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221324</v>
+        <v>240.3895616221355</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645209</v>
+        <v>284.1035717645246</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354646</v>
+        <v>302.4464881354689</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354646</v>
+        <v>302.4464881354689</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354646</v>
+        <v>182.0400711549697</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354646</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354646</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354646</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354646</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="W7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489093</v>
+        <v>30.61289839489118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.847122105397</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>1020.847122105397</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.847122105397</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>852.6996934255721</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359645</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056573</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>1704.678664719082</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V8" t="n">
-        <v>1373.615777375511</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W8" t="n">
-        <v>1020.847122105397</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="X8" t="n">
-        <v>1020.847122105397</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="Y8" t="n">
-        <v>1020.847122105397</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="V9" t="n">
         <v>1510.593141177798</v>
@@ -4926,7 +4926,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.6199763217379</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="C10" t="n">
-        <v>209.6199763217379</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="D10" t="n">
-        <v>209.6199763217379</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934479</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934479</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>87.82841082319501</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>437.6095272197553</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>437.6095272197553</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>209.6199763217379</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.6199763217379</v>
+        <v>269.4768756534347</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5230,19 +5230,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400699</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2386.238542663355</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
         <v>484.8112968429803</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,13 +6777,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
         <v>1373.553594266881</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,31 +7807,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>32.62677119783824</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>375.5336460862202</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.988420871512282</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987103</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>45.37941682721018</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.76050189075602</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.257951202385321</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>144.8013425629421</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>101551.284536593</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996479</v>
+        <v>216004.0468996514</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960651</v>
+        <v>167084.5112960605</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838215</v>
+        <v>50221.67010838295</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064668</v>
+        <v>59784.02116064559</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468123</v>
+        <v>221112.0537468114</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186738</v>
-      </c>
       <c r="L4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496084</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790089</v>
+        <v>72511.97598790114</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743118.5712928585</v>
+        <v>-743478.6543085759</v>
       </c>
       <c r="C6" t="n">
-        <v>-386471.8111547186</v>
+        <v>-386471.8111547215</v>
       </c>
       <c r="D6" t="n">
-        <v>-303330.3177611923</v>
+        <v>-303330.317761188</v>
       </c>
       <c r="E6" t="n">
-        <v>-596320.4434865377</v>
+        <v>-596355.1814119744</v>
       </c>
       <c r="F6" t="n">
-        <v>5122.764087726464</v>
+        <v>5088.026162290698</v>
       </c>
       <c r="G6" t="n">
-        <v>5122.764087726449</v>
+        <v>5088.026162290727</v>
       </c>
       <c r="H6" t="n">
-        <v>5122.764087726449</v>
+        <v>5088.026162290727</v>
       </c>
       <c r="I6" t="n">
-        <v>5122.764087726406</v>
+        <v>5088.026162290698</v>
       </c>
       <c r="J6" t="n">
-        <v>-43942.18064081823</v>
+        <v>-43976.91856625394</v>
       </c>
       <c r="K6" t="n">
-        <v>-45098.90602065573</v>
+        <v>-45133.64394609221</v>
       </c>
       <c r="L6" t="n">
-        <v>-62609.42683988038</v>
+        <v>-62609.42683987934</v>
       </c>
       <c r="M6" t="n">
-        <v>-159971.7862308315</v>
+        <v>-159971.7862308318</v>
       </c>
       <c r="N6" t="n">
-        <v>-2825.405679233765</v>
+        <v>-2825.405679233751</v>
       </c>
       <c r="O6" t="n">
-        <v>-2825.405679233721</v>
+        <v>-2825.405679233736</v>
       </c>
       <c r="P6" t="n">
-        <v>-2825.405679233736</v>
+        <v>-2825.405679233751</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836599</v>
+        <v>716.4483122836626</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361366</v>
+        <v>382.6612299361398</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707551</v>
+        <v>167.9783713707578</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540252</v>
+        <v>137.2623522540215</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698166</v>
+        <v>195.1356427698197</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900278</v>
+        <v>159.4537267900234</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698166</v>
+        <v>195.1356427698197</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900278</v>
+        <v>159.4537267900234</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698166</v>
+        <v>195.1356427698197</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900278</v>
+        <v>159.4537267900234</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>332.6461205731693</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>95.03575148774178</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.8175942954082</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681197</v>
+        <v>157.2518555187465</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098432</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.3995267637777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849659</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>115.4661392490069</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>298.9918909798062</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76131335876266</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577771</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724386</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4877993650491</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>98.58173911315959</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>28.1607322499079</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238346</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037444</v>
+        <v>116.5978353037442</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037935</v>
+        <v>35.65413415037901</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461319</v>
+        <v>43.32130647461278</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106944</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443858</v>
+        <v>51.58842791190793</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>17.40774449342314</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>215.464415679235</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>230.54054559172</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250446</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27989,7 +27989,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>11.39188093250795</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>104.5251892189943</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28068,7 +28068,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>170.284621701191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29035,13 +29035,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235817</v>
+        <v>2.880194220235827</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799006</v>
+        <v>29.49678905799017</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756414</v>
+        <v>111.0386876756419</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997399</v>
+        <v>244.4528841997408</v>
       </c>
       <c r="K5" t="n">
-        <v>366.371505542322</v>
+        <v>366.3715055423235</v>
       </c>
       <c r="L5" t="n">
-        <v>454.516249409864</v>
+        <v>454.5162494098657</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739827</v>
+        <v>505.7369033739846</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022277</v>
+        <v>513.9202552022297</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247578</v>
+        <v>485.2803239247597</v>
       </c>
       <c r="P5" t="n">
-        <v>414.175529112686</v>
+        <v>414.1755291126876</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004907</v>
+        <v>311.0285736004919</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868883</v>
+        <v>180.923000186889</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362374</v>
+        <v>65.63242579362398</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908229</v>
+        <v>12.60805019908234</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188653</v>
+        <v>0.2304155376188662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044099</v>
+        <v>1.541039766044105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574169</v>
+        <v>14.88319984574175</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704463</v>
+        <v>53.05772878704484</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594559</v>
+        <v>145.5944631594564</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844104</v>
+        <v>248.8441274844114</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754961</v>
+        <v>334.6016386754974</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945946</v>
+        <v>390.4643301945961</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519694</v>
+        <v>400.7987591519709</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306764</v>
+        <v>366.6525622306778</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058509999</v>
+        <v>294.271005851001</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462608</v>
+        <v>196.7123743462615</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158014</v>
+        <v>95.67964442158049</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963488</v>
+        <v>28.62413775963499</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572483</v>
+        <v>6.211471688572507</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344802</v>
+        <v>0.1013841951344806</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970534</v>
+        <v>1.291955972970539</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513803</v>
+        <v>11.48666310513807</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351389</v>
+        <v>38.85263962351404</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901676</v>
+        <v>91.3412872890171</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505766</v>
+        <v>150.1017939505771</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178193</v>
+        <v>192.07861801782</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902811</v>
+        <v>202.5199712902818</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273911</v>
+        <v>197.7044990273918</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522352</v>
+        <v>182.6121042522359</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036362</v>
+        <v>156.2562024036368</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548326</v>
+        <v>108.1836951548331</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647509</v>
+        <v>58.09103856647531</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258648</v>
+        <v>22.51526909258657</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874099</v>
+        <v>5.52017552087412</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839285</v>
+        <v>0.07047032579839312</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305357</v>
+        <v>63.40697967305451</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973415</v>
+        <v>146.2816544973429</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398768</v>
+        <v>218.7498344398785</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467099</v>
+        <v>275.3906701467118</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056368</v>
+        <v>284.5071916056388</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030711</v>
+        <v>255.1821125030729</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574165</v>
+        <v>182.9425333574181</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604126</v>
+        <v>88.72288372604245</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278918</v>
+        <v>18.75683649278972</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100515</v>
+        <v>111.0026885100524</v>
       </c>
       <c r="L6" t="n">
-        <v>196.047258895622</v>
+        <v>196.0472588956232</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725763</v>
+        <v>248.3302962725778</v>
       </c>
       <c r="N6" t="n">
-        <v>269.457047068636</v>
+        <v>269.4570470686376</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862319</v>
+        <v>224.0563177862334</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366696</v>
+        <v>160.2965984366708</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023924</v>
+        <v>56.73060026023998</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004118</v>
+        <v>21.08853578004175</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658097</v>
+        <v>57.19394173658171</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267601</v>
+        <v>63.59418734267678</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215786</v>
+        <v>70.01895456215863</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039242</v>
+        <v>44.15556580039311</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448855</v>
+        <v>18.52819835448915</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
